--- a/data/trans_dic/P15D$urgencias-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15D$urgencias-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,39; 60,9</t>
+          <t>9,4; 70,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,63; 73,45</t>
+          <t>41,6; 74,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,42; 73,88</t>
+          <t>23,98; 69,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,85; 86,75</t>
+          <t>53,27; 88,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,63; 100,0</t>
+          <t>29,71; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,17; 85,96</t>
+          <t>46,67; 85,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>42,15; 79,66</t>
+          <t>42,83; 79,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>53,52; 78,53</t>
+          <t>54,87; 80,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,12; 74,4</t>
+          <t>22,13; 72,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49,79; 75,23</t>
+          <t>51,1; 75,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>42,45; 71,6</t>
+          <t>41,29; 70,56</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>57,72; 79,67</t>
+          <t>59,48; 80,95</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,26; 84,86</t>
+          <t>10,09; 76,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,35; 81,76</t>
+          <t>48,34; 81,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55,79; 94,51</t>
+          <t>55,56; 94,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,88; 61,32</t>
+          <t>15,71; 63,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,38; 100,0</t>
+          <t>44,14; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,36; 82,35</t>
+          <t>45,8; 82,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,49; 80,08</t>
+          <t>30,34; 85,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,41; 51,42</t>
+          <t>23,14; 52,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,55; 81,22</t>
+          <t>32,93; 81,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>54,19; 78,49</t>
+          <t>52,07; 76,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>51,12; 84,07</t>
+          <t>52,95; 82,56</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,1; 50,87</t>
+          <t>25,79; 51,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,22 +1005,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,96; 85,99</t>
+          <t>36,27; 85,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,04; 57,85</t>
+          <t>32,35; 60,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>43,02; 82,95</t>
+          <t>46,76; 84,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,5; 76,93</t>
+          <t>39,49; 76,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1030,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,91; 40,19</t>
+          <t>11,93; 40,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>36,7; 86,97</t>
+          <t>38,33; 87,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,23; 62,85</t>
+          <t>30,33; 61,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>34,46; 77,45</t>
+          <t>33,58; 80,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>27,0; 46,67</t>
+          <t>26,57; 46,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>49,82; 78,62</t>
+          <t>48,47; 79,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>38,8; 62,78</t>
+          <t>39,04; 63,45</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,29; 83,07</t>
+          <t>38,04; 84,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,62; 93,31</t>
+          <t>64,58; 93,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,36; 75,46</t>
+          <t>43,34; 74,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,14; 86,37</t>
+          <t>29,85; 83,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,84; 71,69</t>
+          <t>10,46; 72,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,75; 86,06</t>
+          <t>35,33; 81,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>51,0; 84,34</t>
+          <t>53,26; 85,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,21; 72,02</t>
+          <t>20,0; 71,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,26; 71,55</t>
+          <t>35,81; 72,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>59,27; 85,64</t>
+          <t>60,24; 85,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>53,87; 77,1</t>
+          <t>53,34; 76,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,81; 69,19</t>
+          <t>32,76; 71,4</t>
         </is>
       </c>
     </row>
@@ -1284,32 +1285,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,59; 79,15</t>
+          <t>11,06; 78,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>58,17; 100,0</t>
+          <t>57,75; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>37,17; 91,4</t>
+          <t>36,77; 90,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43,57; 100,0</t>
+          <t>45,57; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,27; 100,0</t>
+          <t>31,14; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,57; 84,79</t>
+          <t>44,24; 85,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1324,29 +1325,29 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,96; 85,28</t>
+          <t>30,29; 83,02</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>54,27; 86,98</t>
+          <t>56,04; 87,38</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>46,5; 93,1</t>
+          <t>45,97; 93,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>38,72; 100,0</t>
+          <t>40,25; 94,27</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,39; 67,56</t>
+          <t>8,46; 73,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>32,03; 68,53</t>
+          <t>31,29; 69,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,15; 64,65</t>
+          <t>26,72; 64,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,59; 47,17</t>
+          <t>14,54; 47,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,56; 90,62</t>
+          <t>22,81; 90,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>36,74; 71,11</t>
+          <t>37,23; 71,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>47,98; 81,06</t>
+          <t>49,79; 82,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,65; 48,59</t>
+          <t>22,66; 48,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,83; 72,95</t>
+          <t>27,37; 73,81</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>40,56; 65,3</t>
+          <t>39,91; 64,86</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>44,39; 69,66</t>
+          <t>43,55; 69,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,78; 43,65</t>
+          <t>22,07; 43,07</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,04; 47,99</t>
+          <t>12,5; 48,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>38,24; 64,02</t>
+          <t>40,13; 64,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>48,85; 84,65</t>
+          <t>50,18; 87,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>50,97; 83,14</t>
+          <t>50,71; 83,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>41,57; 88,8</t>
+          <t>40,85; 84,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,25; 69,58</t>
+          <t>43,96; 69,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,31; 72,42</t>
+          <t>35,11; 73,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>43,95; 68,92</t>
+          <t>44,5; 68,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>29,06; 58,94</t>
+          <t>29,2; 58,0</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>45,66; 63,6</t>
+          <t>45,39; 63,08</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>48,01; 75,75</t>
+          <t>47,72; 75,29</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>52,5; 71,54</t>
+          <t>51,18; 71,34</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>38,55; 75,39</t>
+          <t>37,32; 76,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>39,23; 80,11</t>
+          <t>42,02; 82,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>41,64; 74,64</t>
+          <t>40,34; 75,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>47,08; 84,68</t>
+          <t>49,86; 84,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>49,81; 84,96</t>
+          <t>50,02; 85,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>38,7; 78,7</t>
+          <t>39,09; 78,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>45,58; 83,11</t>
+          <t>47,94; 85,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>49,68; 77,26</t>
+          <t>49,51; 77,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>48,79; 76,27</t>
+          <t>49,22; 76,41</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>46,21; 74,87</t>
+          <t>47,11; 75,37</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>49,87; 74,11</t>
+          <t>49,47; 74,26</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>53,79; 77,91</t>
+          <t>53,74; 77,6</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>37,08; 55,57</t>
+          <t>36,34; 55,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>51,59; 64,1</t>
+          <t>52,06; 64,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>53,55; 67,8</t>
+          <t>53,48; 67,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>50,82; 65,42</t>
+          <t>50,28; 66,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>54,18; 73,78</t>
+          <t>54,64; 74,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>48,52; 60,36</t>
+          <t>49,01; 62,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>57,41; 71,98</t>
+          <t>57,09; 71,8</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>44,71; 56,4</t>
+          <t>44,23; 56,89</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>47,78; 61,13</t>
+          <t>47,39; 60,8</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>52,23; 61,31</t>
+          <t>52,43; 61,04</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>57,67; 67,53</t>
+          <t>57,64; 67,45</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>49,66; 59,19</t>
+          <t>49,97; 59,18</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya consecuencia del último accidente fue, al menos, acudir a urgencias</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21727</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9417</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>20370</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4872</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19298</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19210</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19712</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7684</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>41025</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>28627</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>40082</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>873; 6508</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15407; 27648</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4605; 13335</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14964; 24769</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2106; 7088</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12893; 23629</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12930; 24107</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15900; 23215</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3625; 11932</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>33043; 48706</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>20394; 34853</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>33947; 46197</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2956</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>20716</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15264</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9286</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>19997</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9204</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12355</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9963</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>40714</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>24468</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>21640</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>792; 6023</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>15024; 25393</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10788; 18381</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3823; 15373</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3957; 8964</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>13858; 24836</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4817; 13625</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7719; 17352</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5537; 13702</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>31936; 47083</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>18687; 29139</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>14881; 29489</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11873</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23801</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15378</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12572</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9622</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9068</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11868</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13000</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>33423</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>24445</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>24440</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6613; 15527</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17099; 31716</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10862; 19524</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8424; 16416</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3305</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4753; 16000</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5321; 12187</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8126; 16508</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7533; 18055</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>24625; 42943</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17987; 29374</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>18789; 30536</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11213</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>24778</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>22929</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>14419</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3874</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10074</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>25887</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7741</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>15087</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>34852</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>48816</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>22160</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6779; 15013</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>19695; 28554</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>16641; 28763</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7089; 19801</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1024; 7096</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5802; 13412</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>19371; 31150</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3642; 13003</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>9888; 20031</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>28263; 40043</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>39876; 57000</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>13748; 29964</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2748</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11235</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6587</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5749</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6148</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13075</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3346</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>8897</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>24311</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>9932</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>5748</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>809; 5772</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7607; 13172</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3722; 9198</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3242; 7113</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2431; 7806</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8758; 17015</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1860; 3346</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 417</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4582; 12557</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>18478; 28811</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6191; 12632</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3080; 7214</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2887</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>15568</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>12922</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7452</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>6729</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>19266</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>24048</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>9495</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>9616</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>34834</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>36970</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>16947</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>753; 6537</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>9495; 20984</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>7543; 18072</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3785; 12483</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2418; 9620</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>13185; 25347</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>18154; 30023</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>6118; 13017</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5336; 14389</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>26248; 42654</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>28170; 44631</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>11703; 22842</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>33371</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>17946</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>29960</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>12460</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>33916</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>15124</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>28540</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>19711</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>67286</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>33070</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>58500</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3410; 13170</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>25990; 41538</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>13266; 23138</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>22028; 36162</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>7523; 15640</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>26235; 41641</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>9622; 20069</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>22297; 34548</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>13346; 26506</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>56488; 78492</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>25696; 40536</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>47880; 66734</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>15164</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>14834</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>20612</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>17951</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>18661</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>15301</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>17803</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>18551</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>33824</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>30134</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>38414</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>36502</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>9849; 20093</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>10090; 19716</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>13961; 26129</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>12942; 21835</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>13473; 22911</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>9895; 19910</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>12817; 22783</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>14166; 22217</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>26246; 40745</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>23238; 37178</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>30344; 45551</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>29326; 42344</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>56905</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>166030</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>121054</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>117758</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>60878</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>140550</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>123689</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>108262</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>117783</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>306580</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>244744</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>226020</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>44731; 68097</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>147737; 181822</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>106766; 134514</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>100593; 132643</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>51253; 69745</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>124644; 157938</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>108617; 136617</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>94485; 121523</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>102779; 131867</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>282136; 328442</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>224745; 262987</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>206704; 244820</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>